--- a/plantilla/plantilla.xlsx
+++ b/plantilla/plantilla.xlsx
@@ -25,7 +25,7 @@
     <t>Restaurante:</t>
   </si>
   <si>
-    <t>Productos</t>
+    <t>Producto</t>
   </si>
   <si>
     <t>Cantidad</t>
@@ -87,7 +87,6 @@
     </font>
     <font>
       <b/>
-      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1265,7 +1264,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>

--- a/plantilla/plantilla.xlsx
+++ b/plantilla/plantilla.xlsx
@@ -852,11 +852,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1261,10 +1259,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1274,411 +1272,404 @@
     <col min="3" max="3" width="40.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:6">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:6">
-      <c r="A2" s="4" t="s">
+    <row r="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" ht="21" customHeight="1" spans="1:6">
-      <c r="A3" s="8" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" ht="21" customHeight="1" spans="1:6">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" customFormat="1" ht="12" customHeight="1" spans="1:6">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" customFormat="1" ht="12" customHeight="1" spans="1:6">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="15.75" spans="1:6">
-      <c r="A5" s="14" t="s">
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="15.75" spans="1:6">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="21"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="21"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="19"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="21"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="21"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="21"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="19"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="21"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="21"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="21"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="19"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="21"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="19"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="21"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="19"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="21"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="19"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="21"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="19"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="21"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="19"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="21"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="19"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="21"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="19"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="21"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="19"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="21"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="19"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="21"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="19"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="21"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="21"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="D4:F4"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
@@ -1722,7 +1713,6 @@
     <mergeCell ref="D45:F45"/>
     <mergeCell ref="D46:F46"/>
     <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
